--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111470448</v>
+        <v>111471685</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554488.5866359913</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R2" t="n">
-        <v>7003175.257923778</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111469986</v>
+        <v>111470101</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554489.6113782075</v>
+        <v>554474.9281677724</v>
       </c>
       <c r="R3" t="n">
-        <v>7003329.432399829</v>
+        <v>7003314.266989549</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rikligt på tall</t>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111471797</v>
+        <v>111470245</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554597.2688619854</v>
+        <v>554481.1995954363</v>
       </c>
       <c r="R4" t="n">
-        <v>7003280.616068945</v>
+        <v>7003291.317192273</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,12 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:49</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111470636</v>
+        <v>111470486</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,13 +1065,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554457.9939421143</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R5" t="n">
-        <v>7003163.892755959</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1142,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111470792</v>
+        <v>111470636</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554440.9784625648</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R6" t="n">
-        <v>7003152.756292564</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111470743</v>
+        <v>111470792</v>
       </c>
       <c r="B7" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554457.9939421143</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R7" t="n">
-        <v>7003163.892755959</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111470486</v>
+        <v>111470448</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1444,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111471685</v>
+        <v>111471083</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,25 +1488,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554595.0694405095</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R9" t="n">
-        <v>7003142.694495555</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1557,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1567,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1707,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111470245</v>
+        <v>111469986</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,25 +1714,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554481.1995954363</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R11" t="n">
-        <v>7003291.317192273</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1783,7 +1778,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1788,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111471083</v>
+        <v>111471797</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554499.1143642976</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R12" t="n">
-        <v>7003141.52872613</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1906,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111470101</v>
+        <v>111470743</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1945,20 +1950,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1974,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554474.9281677724</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R13" t="n">
-        <v>7003314.266989549</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2009,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2019,12 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111471685</v>
+        <v>111471083</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554595.0694405095</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R2" t="n">
-        <v>7003142.694495555</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111470101</v>
+        <v>111470792</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554474.9281677724</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R3" t="n">
-        <v>7003314.266989549</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111470245</v>
+        <v>111470636</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554481.1995954363</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R4" t="n">
-        <v>7003291.317192273</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1024,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111470486</v>
+        <v>111470743</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554488.5866359913</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R5" t="n">
-        <v>7003175.257923778</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1137,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111470636</v>
+        <v>111471797</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554457.9939421143</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R6" t="n">
-        <v>7003163.892755959</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1218,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111470792</v>
+        <v>111469986</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554440.9784625648</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R7" t="n">
-        <v>7003152.756292564</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1336,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111470448</v>
+        <v>111471685</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,13 +1409,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554488.5866359913</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R8" t="n">
-        <v>7003175.257923778</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1439,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111471083</v>
+        <v>111470685</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554499.1143642976</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R9" t="n">
-        <v>7003141.52872613</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1552,7 +1557,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1567,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111470685</v>
+        <v>111470486</v>
       </c>
       <c r="B10" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,13 +1635,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554457.9939421143</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R10" t="n">
-        <v>7003163.892755959</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1702,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469986</v>
+        <v>111470245</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1719,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554489.6113782075</v>
+        <v>554481.1995954363</v>
       </c>
       <c r="R11" t="n">
-        <v>7003329.432399829</v>
+        <v>7003291.317192273</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1778,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1788,12 +1793,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Rikligt på tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111471797</v>
+        <v>111470448</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,13 +1861,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554597.2688619854</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R12" t="n">
-        <v>7003280.616068945</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,12 +1906,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:49</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111470743</v>
+        <v>111470101</v>
       </c>
       <c r="B13" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,20 +1945,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1979,10 +1974,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554457.9939421143</v>
+        <v>554474.9281677724</v>
       </c>
       <c r="R13" t="n">
-        <v>7003163.892755959</v>
+        <v>7003314.266989549</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2009,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,7 +2019,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111471083</v>
+        <v>111471685</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554499.1143642976</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R2" t="n">
-        <v>7003141.52872613</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111470792</v>
+        <v>111471083</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554440.9784625648</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R3" t="n">
-        <v>7003152.756292564</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111470636</v>
+        <v>111470448</v>
       </c>
       <c r="B4" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554457.9939421143</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R4" t="n">
-        <v>7003163.892755959</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111470743</v>
+        <v>111470636</v>
       </c>
       <c r="B5" t="n">
-        <v>78611</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6463</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111471797</v>
+        <v>111470743</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,20 +1144,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554597.2688619854</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R6" t="n">
-        <v>7003280.616068945</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,12 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:49</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111469986</v>
+        <v>111471797</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1291,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554489.6113782075</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R7" t="n">
-        <v>7003329.432399829</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,12 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Rikligt på tall</t>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111471685</v>
+        <v>111470792</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554595.0694405095</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R8" t="n">
-        <v>7003142.694495555</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111470685</v>
+        <v>111470486</v>
       </c>
       <c r="B9" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,13 +1517,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554457.9939421143</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R9" t="n">
-        <v>7003163.892755959</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1594,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111470486</v>
+        <v>111470101</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,13 +1630,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554488.5866359913</v>
+        <v>554474.9281677724</v>
       </c>
       <c r="R10" t="n">
-        <v>7003175.257923778</v>
+        <v>7003314.266989549</v>
       </c>
       <c r="S10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1670,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1675,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1820,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111470448</v>
+        <v>111469986</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,13 +1861,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554488.5866359913</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R12" t="n">
-        <v>7003175.257923778</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1906,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111470101</v>
+        <v>111470685</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>77267</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1974,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554474.9281677724</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R13" t="n">
-        <v>7003314.266989549</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2009,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2019,12 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111471685</v>
+        <v>111470101</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554595.0694405095</v>
+        <v>554474.9281677724</v>
       </c>
       <c r="R2" t="n">
-        <v>7003142.694495555</v>
+        <v>7003314.266989549</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111471083</v>
+        <v>111470743</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554499.1143642976</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R3" t="n">
-        <v>7003141.52872613</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111470448</v>
+        <v>111471797</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +952,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554488.5866359913</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R4" t="n">
-        <v>7003175.257923778</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +997,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111470636</v>
+        <v>111470245</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1041,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554457.9939421143</v>
+        <v>554481.1995954363</v>
       </c>
       <c r="R5" t="n">
-        <v>7003163.892755959</v>
+        <v>7003291.317192273</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1132,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111470743</v>
+        <v>111470636</v>
       </c>
       <c r="B6" t="n">
-        <v>78611</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111471797</v>
+        <v>111471083</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554597.2688619854</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R7" t="n">
-        <v>7003280.616068945</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,12 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:49</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,7 +1368,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111470792</v>
+        <v>111470448</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1404,13 +1409,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554440.9784625648</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R8" t="n">
-        <v>7003152.756292564</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1439,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1589,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111470101</v>
+        <v>111470685</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>77267</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554474.9281677724</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R10" t="n">
-        <v>7003314.266989549</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1665,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,12 +1680,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111470245</v>
+        <v>111471685</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,25 +1719,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554481.1995954363</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R11" t="n">
-        <v>7003291.317192273</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469986</v>
+        <v>111470792</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554489.6113782075</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R12" t="n">
-        <v>7003329.432399829</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,12 +1906,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Rikligt på tall</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111470685</v>
+        <v>111469986</v>
       </c>
       <c r="B13" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,21 +1949,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1974,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554457.9939421143</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R13" t="n">
-        <v>7003163.892755959</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2009,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,7 +2019,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111471797</v>
+        <v>111470245</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554597.2688619854</v>
+        <v>554481.1995954363</v>
       </c>
       <c r="R4" t="n">
-        <v>7003280.616068945</v>
+        <v>7003291.317192273</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,12 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:49</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111470245</v>
+        <v>111471797</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554481.1995954363</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R5" t="n">
-        <v>7003291.317192273</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1105,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1110,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111470101</v>
+        <v>111471083</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554474.9281677724</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R2" t="n">
-        <v>7003314.266989549</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111470743</v>
+        <v>111471797</v>
       </c>
       <c r="B3" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,20 +805,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554457.9939421143</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R3" t="n">
-        <v>7003163.892755959</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,7 +911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111470245</v>
+        <v>111470792</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554481.1995954363</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R4" t="n">
-        <v>7003291.317192273</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111471797</v>
+        <v>111469986</v>
       </c>
       <c r="B5" t="n">
         <v>77515</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554597.2688619854</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R5" t="n">
-        <v>7003280.616068945</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På tall</t>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111470636</v>
+        <v>111470448</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554457.9939421143</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R6" t="n">
-        <v>7003163.892755959</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111471083</v>
+        <v>111470486</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,13 +1296,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554499.1143642976</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R7" t="n">
-        <v>7003141.52872613</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111470448</v>
+        <v>111470245</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554488.5866359913</v>
+        <v>554481.1995954363</v>
       </c>
       <c r="R8" t="n">
-        <v>7003175.257923778</v>
+        <v>7003291.317192273</v>
       </c>
       <c r="S8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111470486</v>
+        <v>111470636</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1497,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554488.5866359913</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R9" t="n">
-        <v>7003175.257923778</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111470685</v>
+        <v>111471685</v>
       </c>
       <c r="B10" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554457.9939421143</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R10" t="n">
-        <v>7003163.892755959</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,7 +1707,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111471685</v>
+        <v>111470101</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554595.0694405095</v>
+        <v>554474.9281677724</v>
       </c>
       <c r="R11" t="n">
-        <v>7003142.694495555</v>
+        <v>7003314.266989549</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1793,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111470792</v>
+        <v>111470685</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554440.9784625648</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R12" t="n">
-        <v>7003152.756292564</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1911,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469986</v>
+        <v>111470743</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1945,20 +1950,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1974,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554489.6113782075</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R13" t="n">
-        <v>7003329.432399829</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2009,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2019,12 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Rikligt på tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111471083</v>
+        <v>111470636</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554499.1143642976</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R2" t="n">
-        <v>7003141.52872613</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111471797</v>
+        <v>111470743</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,20 +805,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554597.2688619854</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R3" t="n">
-        <v>7003280.616068945</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:49</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111470792</v>
+        <v>111470448</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554440.9784625648</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R4" t="n">
-        <v>7003152.756292564</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111469986</v>
+        <v>111471685</v>
       </c>
       <c r="B5" t="n">
         <v>77515</v>
@@ -1065,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554489.6113782075</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R5" t="n">
-        <v>7003329.432399829</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,12 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt på tall</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111470448</v>
+        <v>111470486</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1218,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111470486</v>
+        <v>111471797</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554488.5866359913</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R7" t="n">
-        <v>7003175.257923778</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,7 +1363,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111470245</v>
+        <v>111471083</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1409,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554481.1995954363</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R8" t="n">
-        <v>7003291.317192273</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111470636</v>
+        <v>111469986</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554457.9939421143</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R9" t="n">
-        <v>7003163.892755959</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1557,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1567,7 +1562,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111471685</v>
+        <v>111470792</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1606,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554595.0694405095</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R10" t="n">
-        <v>7003142.694495555</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1825,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111470685</v>
+        <v>111470245</v>
       </c>
       <c r="B12" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554457.9939421143</v>
+        <v>554481.1995954363</v>
       </c>
       <c r="R12" t="n">
-        <v>7003163.892755959</v>
+        <v>7003291.317192273</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111470743</v>
+        <v>111470685</v>
       </c>
       <c r="B13" t="n">
-        <v>78611</v>
+        <v>77267</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6463</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>

--- a/artfynd/A 15073-2023.xlsx
+++ b/artfynd/A 15073-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111470636</v>
+        <v>111470486</v>
       </c>
       <c r="B2" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554457.9939421143</v>
+        <v>554488.5866359913</v>
       </c>
       <c r="R2" t="n">
-        <v>7003163.892755959</v>
+        <v>7003175.257923778</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111470743</v>
+        <v>111471083</v>
       </c>
       <c r="B3" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554457.9939421143</v>
+        <v>554499.1143642976</v>
       </c>
       <c r="R3" t="n">
-        <v>7003163.892755959</v>
+        <v>7003141.52872613</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111471685</v>
+        <v>111470792</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554595.0694405095</v>
+        <v>554440.9784625648</v>
       </c>
       <c r="R5" t="n">
-        <v>7003142.694495555</v>
+        <v>7003152.756292564</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111470486</v>
+        <v>111470101</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554488.5866359913</v>
+        <v>554474.9281677724</v>
       </c>
       <c r="R6" t="n">
-        <v>7003175.257923778</v>
+        <v>7003314.266989549</v>
       </c>
       <c r="S6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111471797</v>
+        <v>111469986</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1286,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554597.2688619854</v>
+        <v>554489.6113782075</v>
       </c>
       <c r="R7" t="n">
-        <v>7003280.616068945</v>
+        <v>7003329.432399829</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,12 +1336,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På tall</t>
+          <t>Rikligt på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111471083</v>
+        <v>111470685</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554499.1143642976</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R8" t="n">
-        <v>7003141.52872613</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1439,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,7 +1481,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111469986</v>
+        <v>111471797</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1517,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554489.6113782075</v>
+        <v>554597.2688619854</v>
       </c>
       <c r="R9" t="n">
-        <v>7003329.432399829</v>
+        <v>7003280.616068945</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1552,7 +1557,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,12 +1567,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Rikligt på tall</t>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111470792</v>
+        <v>111470636</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554440.9784625648</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R10" t="n">
-        <v>7003152.756292564</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111470101</v>
+        <v>111470743</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,20 +1724,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1748,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554474.9281677724</v>
+        <v>554457.9939421143</v>
       </c>
       <c r="R11" t="n">
-        <v>7003314.266989549</v>
+        <v>7003163.892755959</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1783,7 +1788,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,12 +1798,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1938,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111470685</v>
+        <v>111471685</v>
       </c>
       <c r="B13" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554457.9939421143</v>
+        <v>554595.0694405095</v>
       </c>
       <c r="R13" t="n">
-        <v>7003163.892755959</v>
+        <v>7003142.694495555</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="AD13" t="b">
